--- a/PONTO DE FUNÇÃO/APF Realizada.xlsx
+++ b/PONTO DE FUNÇÃO/APF Realizada.xlsx
@@ -1245,8 +1245,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1256,40 +1256,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1312,22 +1312,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1336,6 +1327,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1346,6 +1340,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,6 +1545,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1641,6 +1689,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1705,6 +1801,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2021,7 +2165,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="65"/>
@@ -2134,45 +2278,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="81" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="75"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="80">
+      <c r="V4" s="76"/>
+      <c r="W4" s="87">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2182,41 +2326,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="82"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="81" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="78">
+      <c r="V5" s="76"/>
+      <c r="W5" s="74">
         <f>SUM(Y11:Y14)</f>
-        <v>75</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="75"/>
+        <v>76</v>
+      </c>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="76"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2226,36 +2370,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="82"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="76"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -2265,38 +2409,38 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="77" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="76"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2306,38 +2450,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="82"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="77" t="s">
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="74"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="76"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -2384,46 +2528,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="76" t="s">
+      <c r="O10" s="73" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="65"/>
-      <c r="Q10" s="81" t="s">
+      <c r="Q10" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="81" t="s">
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="81" t="s">
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="76"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2438,41 +2582,41 @@
       <c r="C11" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="67"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="78">
+      <c r="R11" s="76"/>
+      <c r="S11" s="74">
         <f>Sumário!E55</f>
-        <v>75</v>
-      </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="79">
+        <v>76</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="78">
         <v>1</v>
       </c>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="78">
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="74">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>75</v>
-      </c>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="75"/>
+        <v>76</v>
+      </c>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="76"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2487,41 +2631,41 @@
       <c r="C12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="67"/>
       <c r="P12" s="68"/>
-      <c r="Q12" s="77" t="s">
+      <c r="Q12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="78">
+      <c r="R12" s="75"/>
+      <c r="S12" s="74">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="79">
+      <c r="T12" s="76"/>
+      <c r="U12" s="78">
         <v>1</v>
       </c>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="78">
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="76"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2536,41 +2680,41 @@
       <c r="C13" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="67"/>
       <c r="P13" s="68"/>
-      <c r="Q13" s="77" t="s">
+      <c r="Q13" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="74"/>
-      <c r="S13" s="78">
+      <c r="R13" s="75"/>
+      <c r="S13" s="74">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="79">
+      <c r="T13" s="76"/>
+      <c r="U13" s="78">
         <v>1</v>
       </c>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="78">
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="76"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2596,28 +2740,28 @@
       <c r="N14" s="4"/>
       <c r="O14" s="70"/>
       <c r="P14" s="71"/>
-      <c r="Q14" s="77" t="s">
+      <c r="Q14" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="74"/>
-      <c r="S14" s="78">
+      <c r="R14" s="75"/>
+      <c r="S14" s="74">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="79">
+      <c r="T14" s="76"/>
+      <c r="U14" s="78">
         <v>1</v>
       </c>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="78">
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="76"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -2674,7 +2818,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="80" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="71"/>
@@ -2703,7 +2847,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
@@ -3564,7 +3708,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="87" t="s">
+      <c r="K40" s="80" t="s">
         <v>25</v>
       </c>
       <c r="L40" s="71"/>
@@ -3593,7 +3737,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
       <c r="D41" s="65"/>
@@ -7294,6 +7438,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A41:AB60"/>
     <mergeCell ref="A10:B14"/>
     <mergeCell ref="Y14:AB14"/>
@@ -7310,39 +7487,6 @@
     <mergeCell ref="K16:S16"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="K40:S40"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="Q10:T10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7356,7 +7500,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7471,28 +7615,28 @@
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="92" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -7505,28 +7649,28 @@
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="92" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -7539,15 +7683,15 @@
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="92" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="93" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
@@ -7559,7 +7703,7 @@
       <c r="M6" s="72"/>
       <c r="N6" s="93" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 75</v>
+        <v>PF  = 76</v>
       </c>
       <c r="O6" s="94"/>
       <c r="P6" s="14"/>
@@ -7578,11 +7722,11 @@
       <c r="A7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
@@ -7752,7 +7896,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="25">
         <v>1</v>
@@ -7807,7 +7951,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="25">
         <v>1</v>
@@ -7862,7 +8006,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="25">
         <v>1</v>
@@ -8027,7 +8171,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="25">
         <v>1</v>
@@ -8302,30 +8446,30 @@
         <v>41</v>
       </c>
       <c r="I20" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>CEA</v>
       </c>
       <c r="L20" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M20" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N20" s="31">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" s="35">
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
@@ -8470,7 +8614,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="25" t="str">
         <f t="shared" si="0"/>
@@ -8580,7 +8724,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="25" t="str">
         <f t="shared" si="0"/>
@@ -12710,20 +12854,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -12746,7 +12890,7 @@
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
-      <c r="L2" s="104"/>
+      <c r="L2" s="100"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -12758,7 +12902,7 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
@@ -12769,7 +12913,7 @@
       <c r="I3" s="71"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
-      <c r="L3" s="105"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -12781,24 +12925,24 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="str">
+      <c r="A4" s="103" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="107" t="str">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="104" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="108"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="105"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -12810,24 +12954,24 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="str">
+      <c r="A5" s="103" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="107" t="str">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="104" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="108"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -12847,22 +12991,22 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="110" t="str">
+      <c r="F6" s="108" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="110" t="str">
+      <c r="G6" s="76"/>
+      <c r="H6" s="108" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="111" t="str">
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="109" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 75</v>
-      </c>
-      <c r="L6" s="108"/>
+        <v>PF  = 76</v>
+      </c>
+      <c r="L6" s="105"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -12874,26 +13018,26 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="111" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="65"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="112" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="112"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -12905,7 +13049,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -12914,9 +13058,9 @@
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
-      <c r="J8" s="105"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="71"/>
-      <c r="L8" s="105"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -13095,7 +13239,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="34">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.4</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -13369,7 +13513,7 @@
       </c>
       <c r="C24" s="26">
         <f>COUNTIF(CF,"CEL")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="14" t="s">
@@ -13380,7 +13524,7 @@
       </c>
       <c r="G24" s="27">
         <f>C24*3</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -13402,7 +13546,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="26">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="14" t="s">
@@ -13413,7 +13557,7 @@
       </c>
       <c r="G25" s="27">
         <f>C25*4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -13502,12 +13646,12 @@
       </c>
       <c r="G28" s="27">
         <f>SUM(G24:G26)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="40">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.32</v>
+        <v>0.32894736842105265</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -13713,7 +13857,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="42">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.28000000000000003</v>
+        <v>0.27631578947368424</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -13991,7 +14135,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="27">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -14235,14 +14379,14 @@
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="76"/>
       <c r="E55" s="45">
         <f>SUMIF(Funções!$H$8:$H$117,"I",Funções!$N$8:$N$117)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F55" s="45">
         <f>Contagem!U11</f>
@@ -14250,7 +14394,7 @@
       </c>
       <c r="G55" s="45">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" s="46"/>
       <c r="I55" s="46"/>
@@ -14271,11 +14415,11 @@
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="45">
         <f>SUMIF(Funções!$H$8:$H$117,"A",Funções!$N$8:$N$117)</f>
         <v>0</v>
@@ -14293,7 +14437,7 @@
       <c r="J56" s="46"/>
       <c r="K56" s="48">
         <f>Contagem!W5</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L56" s="29"/>
       <c r="M56" s="1"/>
@@ -14308,11 +14452,11 @@
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="45">
         <f>SUMIF(Funções!$H$8:$H$117,"E",Funções!$N$8:$N$117)</f>
         <v>0</v>
@@ -14342,11 +14486,11 @@
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="45">
         <f>SUMIF(Funções!$H$8:$H$117,"T",Funções!$N$8:$N$117)</f>
         <v>0</v>
@@ -14422,6 +14566,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:L4"/>
@@ -14435,11 +14584,6 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
